--- a/version3/tenki_record/東京の2018年の天気.xlsx
+++ b/version3/tenki_record/東京の2018年の天気.xlsx
@@ -8076,7 +8076,65 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:22"/>
+    <row r="20" spans="1:22">
+      <c r="A20" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1012.7</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1015.6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="H20" t="n">
+        <v>20</v>
+      </c>
+      <c r="I20" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J20" t="n">
+        <v>48</v>
+      </c>
+      <c r="K20" t="n">
+        <v>28</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M20" t="n">
+        <v>7</v>
+      </c>
+      <c r="N20" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="P20" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="R20" t="s">
+        <v>29</v>
+      </c>
+      <c r="S20" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="21" spans="1:22"/>
     <row r="22" spans="1:22"/>
     <row r="23" spans="1:22"/>

--- a/version3/tenki_record/東京の2018年の天気.xlsx
+++ b/version3/tenki_record/東京の2018年の天気.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1月" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>日</t>
   </si>
@@ -152,9 +151,6 @@
     <t>雨一時曇</t>
   </si>
   <si>
-    <t>65 ]</t>
-  </si>
-  <si>
     <t>曇後晴</t>
   </si>
   <si>
@@ -189,9 +185,6 @@
   </si>
   <si>
     <t>大雪後曇</t>
-  </si>
-  <si>
-    <t>69 )</t>
   </si>
   <si>
     <t>曇時々晴一時雪</t>
@@ -319,12 +312,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="6"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -348,23 +348,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="標準" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -662,10 +657,10 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
@@ -697,86 +692,86 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1328,8 +1323,8 @@
       <c r="I13" t="n">
         <v>3.3</v>
       </c>
-      <c r="J13" t="s">
-        <v>44</v>
+      <c r="J13" t="n">
+        <v>65</v>
       </c>
       <c r="K13" t="n">
         <v>30</v>
@@ -1359,7 +1354,7 @@
         <v>29</v>
       </c>
       <c r="T13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U13" t="s">
         <v>33</v>
@@ -1536,13 +1531,13 @@
         <v>4.4</v>
       </c>
       <c r="N16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" t="n">
         <v>6.8</v>
       </c>
       <c r="P16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q16" t="n">
         <v>8.699999999999999</v>
@@ -1749,7 +1744,7 @@
         <v>29</v>
       </c>
       <c r="T19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U19" t="s">
         <v>31</v>
@@ -1796,13 +1791,13 @@
         <v>4.3</v>
       </c>
       <c r="N20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O20" t="n">
         <v>5.6</v>
       </c>
       <c r="P20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q20" t="n">
         <v>8.9</v>
@@ -1814,10 +1809,10 @@
         <v>29</v>
       </c>
       <c r="T20" t="s">
+        <v>46</v>
+      </c>
+      <c r="U20" t="s">
         <v>47</v>
-      </c>
-      <c r="U20" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1879,10 +1874,10 @@
         <v>29</v>
       </c>
       <c r="T21" t="s">
+        <v>48</v>
+      </c>
+      <c r="U21" t="s">
         <v>49</v>
-      </c>
-      <c r="U21" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1947,7 +1942,7 @@
         <v>34</v>
       </c>
       <c r="U22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1991,7 +1986,7 @@
         <v>4.5</v>
       </c>
       <c r="N23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O23" t="n">
         <v>9.4</v>
@@ -2012,7 +2007,7 @@
         <v>34</v>
       </c>
       <c r="U23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2056,13 +2051,13 @@
         <v>3.3</v>
       </c>
       <c r="N24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O24" t="n">
         <v>5.3</v>
       </c>
       <c r="P24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q24" t="n">
         <v>2.4</v>
@@ -2074,7 +2069,7 @@
         <v>29</v>
       </c>
       <c r="T24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U24" t="s">
         <v>31</v>
@@ -2142,7 +2137,7 @@
         <v>31</v>
       </c>
       <c r="U25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2204,10 +2199,10 @@
         <v>23</v>
       </c>
       <c r="T26" t="s">
+        <v>54</v>
+      </c>
+      <c r="U26" t="s">
         <v>55</v>
-      </c>
-      <c r="U26" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2238,8 +2233,8 @@
       <c r="I27" t="n">
         <v>-0.7</v>
       </c>
-      <c r="J27" t="s">
-        <v>57</v>
+      <c r="J27" t="n">
+        <v>69</v>
       </c>
       <c r="K27" t="n">
         <v>34</v>
@@ -2594,7 +2589,7 @@
         <v>4</v>
       </c>
       <c r="T32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U32" t="s">
         <v>38</v>
@@ -2641,13 +2636,13 @@
         <v>4.8</v>
       </c>
       <c r="N33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O33" t="n">
         <v>8.4</v>
       </c>
       <c r="P33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q33" t="n">
         <v>6.4</v>
@@ -2659,10 +2654,10 @@
         <v>3</v>
       </c>
       <c r="T33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2706,7 +2701,7 @@
         <v>4.1</v>
       </c>
       <c r="N34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O34" t="n">
         <v>8.699999999999999</v>
@@ -2724,7 +2719,7 @@
         <v>29</v>
       </c>
       <c r="T34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U34" t="s">
         <v>31</v>
@@ -2771,13 +2766,13 @@
         <v>4.2</v>
       </c>
       <c r="N35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O35" t="n">
         <v>6.8</v>
       </c>
       <c r="P35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q35" t="n">
         <v>7.5</v>
@@ -2789,14 +2784,30 @@
         <v>29</v>
       </c>
       <c r="T35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="R1:S2"/>
+    <mergeCell ref="T1:U2"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="L1:P2"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B3:B4"/>
@@ -2804,22 +2815,6 @@
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L1:P2"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q1:Q4"/>
-    <mergeCell ref="R1:S2"/>
-    <mergeCell ref="T1:U2"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -2834,10 +2829,10 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
@@ -2869,86 +2864,86 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2993,13 +2988,13 @@
         <v>4.4</v>
       </c>
       <c r="N5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O5" t="n">
         <v>8.5</v>
       </c>
       <c r="P5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q5" t="n">
         <v>1.9</v>
@@ -3011,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -3076,10 +3071,10 @@
         <v>1</v>
       </c>
       <c r="T6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="U6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -3141,10 +3136,10 @@
         <v>29</v>
       </c>
       <c r="T7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -3206,7 +3201,7 @@
         <v>29</v>
       </c>
       <c r="T8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U8" t="s">
         <v>33</v>
@@ -3318,13 +3313,13 @@
         <v>4.5</v>
       </c>
       <c r="N10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O10" t="n">
         <v>7.2</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q10" t="n">
         <v>8.9</v>
@@ -3336,7 +3331,7 @@
         <v>29</v>
       </c>
       <c r="T10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U10" t="s">
         <v>37</v>
@@ -3513,13 +3508,13 @@
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O13" t="n">
         <v>6.3</v>
       </c>
       <c r="P13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q13" t="n">
         <v>9.5</v>
@@ -3534,7 +3529,7 @@
         <v>31</v>
       </c>
       <c r="U13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -3596,10 +3591,10 @@
         <v>29</v>
       </c>
       <c r="T14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -3661,10 +3656,10 @@
         <v>29</v>
       </c>
       <c r="T15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="U15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -3773,13 +3768,13 @@
         <v>4.2</v>
       </c>
       <c r="N17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O17" t="n">
         <v>9</v>
       </c>
       <c r="P17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q17" t="n">
         <v>6.9</v>
@@ -3791,7 +3786,7 @@
         <v>29</v>
       </c>
       <c r="T17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U17" t="s">
         <v>33</v>
@@ -3859,7 +3854,7 @@
         <v>31</v>
       </c>
       <c r="U18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -3921,10 +3916,10 @@
         <v>29</v>
       </c>
       <c r="T19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -3968,13 +3963,13 @@
         <v>5.9</v>
       </c>
       <c r="N20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O20" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="P20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q20" t="n">
         <v>6.1</v>
@@ -3986,7 +3981,7 @@
         <v>29</v>
       </c>
       <c r="T20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="U20" t="s">
         <v>39</v>
@@ -4051,7 +4046,7 @@
         <v>29</v>
       </c>
       <c r="T21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="U21" t="s">
         <v>33</v>
@@ -4119,7 +4114,7 @@
         <v>31</v>
       </c>
       <c r="U22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -4163,13 +4158,13 @@
         <v>5.1</v>
       </c>
       <c r="N23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O23" t="n">
         <v>8.9</v>
       </c>
       <c r="P23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q23" t="n">
         <v>7</v>
@@ -4181,10 +4176,10 @@
         <v>29</v>
       </c>
       <c r="T23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -4228,13 +4223,13 @@
         <v>4.9</v>
       </c>
       <c r="N24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O24" t="n">
         <v>8</v>
       </c>
       <c r="P24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q24" t="n">
         <v>9.699999999999999</v>
@@ -4249,7 +4244,7 @@
         <v>31</v>
       </c>
       <c r="U24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -4293,13 +4288,13 @@
         <v>5.6</v>
       </c>
       <c r="N25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O25" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="P25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q25" t="n">
         <v>0.2</v>
@@ -4314,7 +4309,7 @@
         <v>39</v>
       </c>
       <c r="U25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -4358,13 +4353,13 @@
         <v>4.6</v>
       </c>
       <c r="N26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O26" t="n">
         <v>8.5</v>
       </c>
       <c r="P26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -4376,10 +4371,10 @@
         <v>29</v>
       </c>
       <c r="T26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -4429,7 +4424,7 @@
         <v>6.3</v>
       </c>
       <c r="P27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q27" t="n">
         <v>2</v>
@@ -4441,7 +4436,7 @@
         <v>29</v>
       </c>
       <c r="T27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U27" t="s">
         <v>33</v>
@@ -4488,13 +4483,13 @@
         <v>5.8</v>
       </c>
       <c r="N28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O28" t="n">
         <v>10.9</v>
       </c>
       <c r="P28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q28" t="n">
         <v>9.1</v>
@@ -4509,7 +4504,7 @@
         <v>31</v>
       </c>
       <c r="U28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -4553,13 +4548,13 @@
         <v>4.4</v>
       </c>
       <c r="N29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O29" t="n">
         <v>7.1</v>
       </c>
       <c r="P29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -4618,13 +4613,13 @@
         <v>5.1</v>
       </c>
       <c r="N30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O30" t="n">
         <v>9.5</v>
       </c>
       <c r="P30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q30" t="n">
         <v>5.8</v>
@@ -4636,10 +4631,10 @@
         <v>29</v>
       </c>
       <c r="T30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -4683,13 +4678,13 @@
         <v>5.3</v>
       </c>
       <c r="N31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O31" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="P31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q31" t="n">
         <v>7.2</v>
@@ -4748,13 +4743,13 @@
         <v>5.9</v>
       </c>
       <c r="N32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O32" t="n">
         <v>9.9</v>
       </c>
       <c r="P32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q32" t="n">
         <v>5.7</v>
@@ -4766,14 +4761,30 @@
         <v>29</v>
       </c>
       <c r="T32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="U32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="R1:S2"/>
+    <mergeCell ref="T1:U2"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="L1:P2"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B3:B4"/>
@@ -4781,22 +4792,6 @@
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L1:P2"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q1:Q4"/>
-    <mergeCell ref="R1:S2"/>
-    <mergeCell ref="T1:U2"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -4811,10 +4806,10 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
@@ -4846,86 +4841,86 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4970,7 +4965,7 @@
         <v>7.7</v>
       </c>
       <c r="N5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O5" t="n">
         <v>15.7</v>
@@ -4988,7 +4983,7 @@
         <v>29</v>
       </c>
       <c r="T5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U5" t="s">
         <v>33</v>
@@ -5100,13 +5095,13 @@
         <v>4.8</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O7" t="n">
         <v>7.1</v>
       </c>
       <c r="P7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q7" t="n">
         <v>9.1</v>
@@ -5118,10 +5113,10 @@
         <v>29</v>
       </c>
       <c r="T7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -5165,13 +5160,13 @@
         <v>8.4</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O8" t="n">
         <v>15.1</v>
       </c>
       <c r="P8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q8" t="n">
         <v>10.4</v>
@@ -5230,7 +5225,7 @@
         <v>10</v>
       </c>
       <c r="N9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O9" t="n">
         <v>20.8</v>
@@ -5248,10 +5243,10 @@
         <v>29</v>
       </c>
       <c r="T9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -5295,13 +5290,13 @@
         <v>5.2</v>
       </c>
       <c r="N10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O10" t="n">
         <v>11.2</v>
       </c>
       <c r="P10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q10" t="n">
         <v>7</v>
@@ -5313,7 +5308,7 @@
         <v>29</v>
       </c>
       <c r="T10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U10" t="s">
         <v>37</v>
@@ -5360,13 +5355,13 @@
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O11" t="n">
         <v>8.9</v>
       </c>
       <c r="P11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q11" t="n">
         <v>0.7</v>
@@ -5381,7 +5376,7 @@
         <v>39</v>
       </c>
       <c r="U11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -5443,10 +5438,10 @@
         <v>29</v>
       </c>
       <c r="T12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -5490,13 +5485,13 @@
         <v>9</v>
       </c>
       <c r="N13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O13" t="n">
         <v>19.6</v>
       </c>
       <c r="P13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -5508,10 +5503,10 @@
         <v>29</v>
       </c>
       <c r="T13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -5573,10 +5568,10 @@
         <v>29</v>
       </c>
       <c r="T14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -5638,7 +5633,7 @@
         <v>29</v>
       </c>
       <c r="T15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U15" t="s">
         <v>33</v>
@@ -5706,7 +5701,7 @@
         <v>33</v>
       </c>
       <c r="U16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -5750,7 +5745,7 @@
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O17" t="n">
         <v>8.699999999999999</v>
@@ -5815,13 +5810,13 @@
         <v>4.6</v>
       </c>
       <c r="N18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O18" t="n">
         <v>7</v>
       </c>
       <c r="P18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q18" t="n">
         <v>10.8</v>
@@ -5880,7 +5875,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="N19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O19" t="n">
         <v>16.1</v>
@@ -5898,7 +5893,7 @@
         <v>29</v>
       </c>
       <c r="T19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="U19" t="s">
         <v>34</v>
@@ -5966,7 +5961,7 @@
         <v>43</v>
       </c>
       <c r="U20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -6010,13 +6005,13 @@
         <v>6.1</v>
       </c>
       <c r="N21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O21" t="n">
         <v>10.1</v>
       </c>
       <c r="P21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q21" t="n">
         <v>11.4</v>
@@ -6031,7 +6026,7 @@
         <v>33</v>
       </c>
       <c r="U21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -6075,7 +6070,7 @@
         <v>6.1</v>
       </c>
       <c r="N22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O22" t="n">
         <v>12.8</v>
@@ -6093,10 +6088,10 @@
         <v>29</v>
       </c>
       <c r="T22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="U22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -6146,7 +6141,7 @@
         <v>9.9</v>
       </c>
       <c r="P23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q23" t="n">
         <v>0.2</v>
@@ -6161,7 +6156,7 @@
         <v>39</v>
       </c>
       <c r="U23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -6205,13 +6200,13 @@
         <v>5.7</v>
       </c>
       <c r="N24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O24" t="n">
         <v>11.8</v>
       </c>
       <c r="P24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -6223,7 +6218,7 @@
         <v>29</v>
       </c>
       <c r="T24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="U24" t="s">
         <v>39</v>
@@ -6288,10 +6283,10 @@
         <v>29</v>
       </c>
       <c r="T25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="U25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -6353,7 +6348,7 @@
         <v>29</v>
       </c>
       <c r="T26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="U26" t="s">
         <v>39</v>
@@ -6400,13 +6395,13 @@
         <v>5.5</v>
       </c>
       <c r="N27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O27" t="n">
         <v>8.1</v>
       </c>
       <c r="P27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q27" t="n">
         <v>3.6</v>
@@ -6418,10 +6413,10 @@
         <v>29</v>
       </c>
       <c r="T27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="U27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -6465,13 +6460,13 @@
         <v>6.2</v>
       </c>
       <c r="N28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O28" t="n">
         <v>10.7</v>
       </c>
       <c r="P28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q28" t="n">
         <v>7.1</v>
@@ -6483,10 +6478,10 @@
         <v>29</v>
       </c>
       <c r="T28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -6530,13 +6525,13 @@
         <v>6</v>
       </c>
       <c r="N29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O29" t="n">
         <v>10</v>
       </c>
       <c r="P29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q29" t="n">
         <v>11.6</v>
@@ -6595,13 +6590,13 @@
         <v>4.9</v>
       </c>
       <c r="N30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O30" t="n">
         <v>7.9</v>
       </c>
       <c r="P30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q30" t="n">
         <v>11.5</v>
@@ -6613,7 +6608,7 @@
         <v>29</v>
       </c>
       <c r="T30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U30" t="s">
         <v>31</v>
@@ -6660,13 +6655,13 @@
         <v>4.4</v>
       </c>
       <c r="N31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O31" t="n">
         <v>7.1</v>
       </c>
       <c r="P31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q31" t="n">
         <v>8.1</v>
@@ -6678,7 +6673,7 @@
         <v>29</v>
       </c>
       <c r="T31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U31" t="s">
         <v>37</v>
@@ -6725,7 +6720,7 @@
         <v>4.9</v>
       </c>
       <c r="N32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O32" t="n">
         <v>8.4</v>
@@ -6790,13 +6785,13 @@
         <v>5.6</v>
       </c>
       <c r="N33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O33" t="n">
         <v>7.9</v>
       </c>
       <c r="P33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q33" t="n">
         <v>10.9</v>
@@ -6855,7 +6850,7 @@
         <v>7.8</v>
       </c>
       <c r="N34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O34" t="n">
         <v>13.9</v>
@@ -6876,7 +6871,7 @@
         <v>31</v>
       </c>
       <c r="U34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -6920,7 +6915,7 @@
         <v>6.2</v>
       </c>
       <c r="N35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O35" t="n">
         <v>10.2</v>
@@ -6946,6 +6941,22 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="R1:S2"/>
+    <mergeCell ref="T1:U2"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="L1:P2"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B3:B4"/>
@@ -6953,22 +6964,6 @@
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L1:P2"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q1:Q4"/>
-    <mergeCell ref="R1:S2"/>
-    <mergeCell ref="T1:U2"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -6982,11 +6977,11 @@
   </sheetPr>
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
@@ -7018,86 +7013,86 @@
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7142,7 +7137,7 @@
         <v>7.7</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O5" t="n">
         <v>12.7</v>
@@ -7160,10 +7155,10 @@
         <v>29</v>
       </c>
       <c r="T5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -7207,13 +7202,13 @@
         <v>7.5</v>
       </c>
       <c r="N6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O6" t="n">
         <v>10.7</v>
       </c>
       <c r="P6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q6" t="n">
         <v>9.5</v>
@@ -7225,7 +7220,7 @@
         <v>29</v>
       </c>
       <c r="T6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s">
         <v>39</v>
@@ -7272,13 +7267,13 @@
         <v>5.3</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O7" t="n">
         <v>9.1</v>
       </c>
       <c r="P7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q7" t="n">
         <v>8.1</v>
@@ -7290,7 +7285,7 @@
         <v>29</v>
       </c>
       <c r="T7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U7" t="s">
         <v>33</v>
@@ -7343,7 +7338,7 @@
         <v>16</v>
       </c>
       <c r="P8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q8" t="n">
         <v>10.8</v>
@@ -7355,10 +7350,10 @@
         <v>29</v>
       </c>
       <c r="T8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -7402,13 +7397,13 @@
         <v>7.3</v>
       </c>
       <c r="N9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O9" t="n">
         <v>12.3</v>
       </c>
       <c r="P9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q9" t="n">
         <v>0.4</v>
@@ -7423,7 +7418,7 @@
         <v>39</v>
       </c>
       <c r="U9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -7488,7 +7483,7 @@
         <v>36</v>
       </c>
       <c r="U10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -7532,13 +7527,13 @@
         <v>8.699999999999999</v>
       </c>
       <c r="N11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O11" t="n">
         <v>18.7</v>
       </c>
       <c r="P11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q11" t="n">
         <v>3.8</v>
@@ -7550,10 +7545,10 @@
         <v>29</v>
       </c>
       <c r="T11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="U11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -7668,7 +7663,7 @@
         <v>16.7</v>
       </c>
       <c r="P13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q13" t="n">
         <v>11.2</v>
@@ -7727,13 +7722,13 @@
         <v>7.8</v>
       </c>
       <c r="N14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O14" t="n">
         <v>12.5</v>
       </c>
       <c r="P14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q14" t="n">
         <v>11.1</v>
@@ -7748,7 +7743,7 @@
         <v>31</v>
       </c>
       <c r="U14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -7810,10 +7805,10 @@
         <v>29</v>
       </c>
       <c r="T15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="U15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -7857,13 +7852,13 @@
         <v>6.2</v>
       </c>
       <c r="N16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O16" t="n">
         <v>11.5</v>
       </c>
       <c r="P16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q16" t="n">
         <v>8.4</v>
@@ -7875,10 +7870,10 @@
         <v>29</v>
       </c>
       <c r="T16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -7987,13 +7982,13 @@
         <v>9</v>
       </c>
       <c r="N18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O18" t="n">
         <v>15.2</v>
       </c>
       <c r="P18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q18" t="n">
         <v>0.8</v>
@@ -8005,10 +8000,10 @@
         <v>29</v>
       </c>
       <c r="T18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -8058,7 +8053,7 @@
         <v>20.9</v>
       </c>
       <c r="P19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -8134,8 +8129,72 @@
       <c r="S20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:22"/>
+      <c r="T20" t="s">
+        <v>66</v>
+      </c>
+      <c r="U20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" t="n">
+        <v>17</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1021.3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1024.2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>15</v>
+      </c>
+      <c r="I21" t="n">
+        <v>11</v>
+      </c>
+      <c r="J21" t="n">
+        <v>81</v>
+      </c>
+      <c r="K21" t="n">
+        <v>64</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>30</v>
+      </c>
+      <c r="O21" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="P21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="s">
+        <v>29</v>
+      </c>
+      <c r="S21" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="22" spans="1:22"/>
     <row r="23" spans="1:22"/>
     <row r="24" spans="1:22"/>
@@ -8152,6 +8211,22 @@
     <row r="35" spans="1:22"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="R1:S2"/>
+    <mergeCell ref="T1:U2"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="L1:P2"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B3:B4"/>
@@ -8159,22 +8234,6 @@
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L1:P2"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q1:Q4"/>
-    <mergeCell ref="R1:S2"/>
-    <mergeCell ref="T1:U2"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/version3/tenki_record/東京の2018年の天気.xlsx
+++ b/version3/tenki_record/東京の2018年の天気.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>日</t>
   </si>
@@ -305,6 +305,12 @@
   </si>
   <si>
     <t>曇時々晴一時雨</t>
+  </si>
+  <si>
+    <t>雨一時晴</t>
+  </si>
+  <si>
+    <t>晴後時々曇</t>
   </si>
 </sst>
 </file>
@@ -8194,9 +8200,143 @@
       <c r="S21" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:22"/>
-    <row r="23" spans="1:22"/>
+      <c r="T21" t="s">
+        <v>36</v>
+      </c>
+      <c r="U21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" t="n">
+        <v>18</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1013.4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1016.3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>28</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>16</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>94</v>
+      </c>
+      <c r="K22" t="n">
+        <v>69</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>59</v>
+      </c>
+      <c r="O22" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="P22" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R22" t="s">
+        <v>29</v>
+      </c>
+      <c r="S22" t="s">
+        <v>29</v>
+      </c>
+      <c r="T22" t="s">
+        <v>96</v>
+      </c>
+      <c r="U22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" t="n">
+        <v>19</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1013.5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1016.3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>77</v>
+      </c>
+      <c r="K23" t="n">
+        <v>53</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>7</v>
+      </c>
+      <c r="N23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="P23" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9</v>
+      </c>
+      <c r="R23" t="s">
+        <v>29</v>
+      </c>
+      <c r="S23" t="s">
+        <v>29</v>
+      </c>
+      <c r="T23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U23" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="24" spans="1:22"/>
     <row r="25" spans="1:22"/>
     <row r="26" spans="1:22"/>

--- a/version3/tenki_record/東京の2018年の天気.xlsx
+++ b/version3/tenki_record/東京の2018年の天気.xlsx
@@ -8337,8 +8337,136 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:22"/>
-    <row r="25" spans="1:22"/>
+    <row r="24" spans="1:22">
+      <c r="A24" t="n">
+        <v>20</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1014.8</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1017.7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H24" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>61</v>
+      </c>
+      <c r="K24" t="n">
+        <v>23</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3</v>
+      </c>
+      <c r="M24" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>68</v>
+      </c>
+      <c r="O24" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="P24" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>12</v>
+      </c>
+      <c r="R24" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" t="s">
+        <v>29</v>
+      </c>
+      <c r="T24" t="s">
+        <v>33</v>
+      </c>
+      <c r="U24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" t="n">
+        <v>21</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1016.8</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1019.7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="H25" t="n">
+        <v>26</v>
+      </c>
+      <c r="I25" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>65</v>
+      </c>
+      <c r="K25" t="n">
+        <v>44</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M25" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>80</v>
+      </c>
+      <c r="O25" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="P25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="R25" t="s">
+        <v>29</v>
+      </c>
+      <c r="S25" t="s">
+        <v>29</v>
+      </c>
+      <c r="T25" t="s">
+        <v>33</v>
+      </c>
+      <c r="U25" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="26" spans="1:22"/>
     <row r="27" spans="1:22"/>
     <row r="28" spans="1:22"/>

--- a/version3/tenki_record/東京の2018年の天気.xlsx
+++ b/version3/tenki_record/東京の2018年の天気.xlsx
@@ -8467,7 +8467,71 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:22"/>
+    <row r="26" spans="1:22">
+      <c r="A26" t="n">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1014.4</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1017.3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="J26" t="n">
+        <v>67</v>
+      </c>
+      <c r="K26" t="n">
+        <v>27</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>45</v>
+      </c>
+      <c r="O26" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="P26" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="R26" t="s">
+        <v>29</v>
+      </c>
+      <c r="S26" t="s">
+        <v>29</v>
+      </c>
+      <c r="T26" t="s">
+        <v>38</v>
+      </c>
+      <c r="U26" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="27" spans="1:22"/>
     <row r="28" spans="1:22"/>
     <row r="29" spans="1:22"/>

--- a/version3/tenki_record/東京の2018年の天気.xlsx
+++ b/version3/tenki_record/東京の2018年の天気.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2月" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3月" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4月" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5月" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>日</t>
   </si>
@@ -311,6 +312,12 @@
   </si>
   <si>
     <t>晴後時々曇</t>
+  </si>
+  <si>
+    <t>大雨後薄曇一時晴</t>
+  </si>
+  <si>
+    <t>曇時々雨一時晴</t>
   </si>
 </sst>
 </file>
@@ -354,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -362,6 +369,9 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8532,14 +8542,526 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:22"/>
-    <row r="28" spans="1:22"/>
-    <row r="29" spans="1:22"/>
-    <row r="30" spans="1:22"/>
-    <row r="31" spans="1:22"/>
-    <row r="32" spans="1:22"/>
-    <row r="33" spans="1:22"/>
-    <row r="34" spans="1:22"/>
+    <row r="27" spans="1:22">
+      <c r="A27" t="n">
+        <v>23</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1017.7</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1020.6</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="I27" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>80</v>
+      </c>
+      <c r="K27" t="n">
+        <v>67</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="N27" t="s">
+        <v>71</v>
+      </c>
+      <c r="O27" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="P27" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="s">
+        <v>29</v>
+      </c>
+      <c r="S27" t="s">
+        <v>29</v>
+      </c>
+      <c r="T27" t="s">
+        <v>39</v>
+      </c>
+      <c r="U27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" t="n">
+        <v>24</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1010.9</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1013.8</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>18</v>
+      </c>
+      <c r="H28" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>84</v>
+      </c>
+      <c r="K28" t="n">
+        <v>63</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M28" t="n">
+        <v>8</v>
+      </c>
+      <c r="N28" t="s">
+        <v>80</v>
+      </c>
+      <c r="O28" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="P28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="s">
+        <v>29</v>
+      </c>
+      <c r="S28" t="s">
+        <v>29</v>
+      </c>
+      <c r="T28" t="s">
+        <v>48</v>
+      </c>
+      <c r="U28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" t="n">
+        <v>25</v>
+      </c>
+      <c r="B29" t="n">
+        <v>998.6</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1001.4</v>
+      </c>
+      <c r="D29" t="n">
+        <v>57</v>
+      </c>
+      <c r="E29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G29" t="n">
+        <v>19</v>
+      </c>
+      <c r="H29" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="J29" t="n">
+        <v>95</v>
+      </c>
+      <c r="K29" t="n">
+        <v>75</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M29" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="N29" t="s">
+        <v>45</v>
+      </c>
+      <c r="O29" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="P29" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R29" t="s">
+        <v>29</v>
+      </c>
+      <c r="S29" t="s">
+        <v>29</v>
+      </c>
+      <c r="T29" t="s">
+        <v>98</v>
+      </c>
+      <c r="U29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" t="n">
+        <v>26</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1006.9</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1009.8</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="H30" t="n">
+        <v>25</v>
+      </c>
+      <c r="I30" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J30" t="n">
+        <v>55</v>
+      </c>
+      <c r="K30" t="n">
+        <v>21</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="M30" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>45</v>
+      </c>
+      <c r="O30" t="n">
+        <v>15</v>
+      </c>
+      <c r="P30" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="R30" t="s">
+        <v>29</v>
+      </c>
+      <c r="S30" t="s">
+        <v>29</v>
+      </c>
+      <c r="T30" t="s">
+        <v>60</v>
+      </c>
+      <c r="U30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" t="n">
+        <v>27</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1006.9</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1009.8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>22</v>
+      </c>
+      <c r="I31" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>70</v>
+      </c>
+      <c r="K31" t="n">
+        <v>50</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="N31" t="s">
+        <v>68</v>
+      </c>
+      <c r="O31" t="n">
+        <v>9</v>
+      </c>
+      <c r="P31" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R31" t="s">
+        <v>29</v>
+      </c>
+      <c r="S31" t="s">
+        <v>29</v>
+      </c>
+      <c r="T31" t="s">
+        <v>39</v>
+      </c>
+      <c r="U31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" t="n">
+        <v>28</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1009.8</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1012.7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>51</v>
+      </c>
+      <c r="K32" t="n">
+        <v>17</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M32" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>80</v>
+      </c>
+      <c r="O32" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="P32" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="R32" t="s">
+        <v>29</v>
+      </c>
+      <c r="S32" t="s">
+        <v>29</v>
+      </c>
+      <c r="T32" t="s">
+        <v>33</v>
+      </c>
+      <c r="U32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" t="n">
+        <v>29</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1014.1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1017</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="I33" t="n">
+        <v>14</v>
+      </c>
+      <c r="J33" t="n">
+        <v>66</v>
+      </c>
+      <c r="K33" t="n">
+        <v>36</v>
+      </c>
+      <c r="L33" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M33" t="n">
+        <v>8</v>
+      </c>
+      <c r="N33" t="s">
+        <v>80</v>
+      </c>
+      <c r="O33" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="P33" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="R33" t="s">
+        <v>29</v>
+      </c>
+      <c r="S33" t="s">
+        <v>29</v>
+      </c>
+      <c r="T33" t="s">
+        <v>33</v>
+      </c>
+      <c r="U33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" t="n">
+        <v>30</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1012.9</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1015.8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="H34" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="I34" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="J34" t="n">
+        <v>65</v>
+      </c>
+      <c r="K34" t="n">
+        <v>48</v>
+      </c>
+      <c r="L34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>45</v>
+      </c>
+      <c r="O34" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="P34" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="R34" t="s">
+        <v>29</v>
+      </c>
+      <c r="S34" t="s">
+        <v>29</v>
+      </c>
+      <c r="T34" t="s">
+        <v>46</v>
+      </c>
+      <c r="U34" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="35" spans="1:22"/>
   </sheetData>
   <mergeCells count="23">
@@ -8569,4 +9091,226 @@
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1012.6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1015.5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>59</v>
+      </c>
+      <c r="K5" t="n">
+        <v>28</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" t="n">
+        <v>10</v>
+      </c>
+      <c r="P5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L1:P2"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="R1:S2"/>
+    <mergeCell ref="T1:U2"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/version3/tenki_record/東京の2018年の天気.xlsx
+++ b/version3/tenki_record/東京の2018年の天気.xlsx
@@ -6991,7 +6991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
@@ -6999,7 +6999,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:21">
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:21">
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:21">
       <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:21">
       <c r="A5" t="n">
         <v>1</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:21">
       <c r="A6" t="n">
         <v>2</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:21">
       <c r="A7" t="n">
         <v>3</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:21">
       <c r="A8" t="n">
         <v>4</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:21">
       <c r="A9" t="n">
         <v>5</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:21">
       <c r="A10" t="n">
         <v>6</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:21">
       <c r="A11" t="n">
         <v>7</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:21">
       <c r="A12" t="n">
         <v>8</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:21">
       <c r="A13" t="n">
         <v>9</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:21">
       <c r="A14" t="n">
         <v>10</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:21">
       <c r="A15" t="n">
         <v>11</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:21">
       <c r="A16" t="n">
         <v>12</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:21">
       <c r="A17" t="n">
         <v>13</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:21">
       <c r="A18" t="n">
         <v>14</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:21">
       <c r="A19" t="n">
         <v>15</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:21">
       <c r="A20" t="n">
         <v>16</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:21">
       <c r="A21" t="n">
         <v>17</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:21">
       <c r="A22" t="n">
         <v>18</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:21">
       <c r="A23" t="n">
         <v>19</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:21">
       <c r="A24" t="n">
         <v>20</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:21">
       <c r="A25" t="n">
         <v>21</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:21">
       <c r="A26" t="n">
         <v>22</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:21">
       <c r="A27" t="n">
         <v>23</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:21">
       <c r="A28" t="n">
         <v>24</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:21">
       <c r="A29" t="n">
         <v>25</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:21">
       <c r="A30" t="n">
         <v>26</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:21">
       <c r="A31" t="n">
         <v>27</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:21">
       <c r="A32" t="n">
         <v>28</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:21">
       <c r="A33" t="n">
         <v>29</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:21">
       <c r="A34" t="n">
         <v>30</v>
       </c>
@@ -9062,7 +9062,6 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:22"/>
   </sheetData>
   <mergeCells count="23">
     <mergeCell ref="R1:S2"/>
@@ -9099,7 +9098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9284,6 +9283,67 @@
       <c r="U5" t="s">
         <v>61</v>
       </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1009.7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1012.6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>79</v>
+      </c>
+      <c r="K6" t="n">
+        <v>38</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="N6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" t="n">
+        <v>12</v>
+      </c>
+      <c r="P6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="23">

--- a/version3/tenki_record/東京の2018年の天気.xlsx
+++ b/version3/tenki_record/東京の2018年の天気.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3月" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4月" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5月" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8月" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t>日</t>
   </si>
@@ -319,6 +320,24 @@
   <si>
     <t>曇時々雨一時晴</t>
   </si>
+  <si>
+    <t xml:space="preserve">北北東 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">北東 </t>
+  </si>
+  <si>
+    <t>雨後曇</t>
+  </si>
+  <si>
+    <t>曇時々雨後晴、雷を伴う</t>
+  </si>
+  <si>
+    <t>曇後時々雨</t>
+  </si>
+  <si>
+    <t>晴時々曇、雷を伴う</t>
+  </si>
 </sst>
 </file>
 
@@ -361,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -369,6 +388,9 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
@@ -9098,7 +9120,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9136,86 +9158,86 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9342,9 +9364,1884 @@
       <c r="S6" t="s">
         <v>29</v>
       </c>
-      <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
-    </row>
+      <c r="T6" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>996.7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>999.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>77</v>
+      </c>
+      <c r="K7" t="n">
+        <v>49</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="n">
+        <v>19</v>
+      </c>
+      <c r="P7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1004.5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1007.3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>18</v>
+      </c>
+      <c r="H8" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>55</v>
+      </c>
+      <c r="K8" t="n">
+        <v>23</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M8" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="N8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="P8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="R8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1011.4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1014.3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>53</v>
+      </c>
+      <c r="K9" t="n">
+        <v>30</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="N9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="P9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="R9" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1009.5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1012.3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>21</v>
+      </c>
+      <c r="H10" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>55</v>
+      </c>
+      <c r="K10" t="n">
+        <v>31</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="P10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="R10" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1004</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1006.8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>21</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>83</v>
+      </c>
+      <c r="K11" t="n">
+        <v>63</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="N11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="P11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>29</v>
+      </c>
+      <c r="S11" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" t="s">
+        <v>48</v>
+      </c>
+      <c r="U11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1010.6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1013.5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>92</v>
+      </c>
+      <c r="K12" t="n">
+        <v>73</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="N12" t="s">
+        <v>100</v>
+      </c>
+      <c r="O12" t="n">
+        <v>10</v>
+      </c>
+      <c r="P12" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" t="s">
+        <v>52</v>
+      </c>
+      <c r="U12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1013</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1015.9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>35</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>90</v>
+      </c>
+      <c r="K13" t="n">
+        <v>72</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="P13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13" t="s">
+        <v>29</v>
+      </c>
+      <c r="T13" t="s">
+        <v>102</v>
+      </c>
+      <c r="U13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1015.1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10</v>
+      </c>
+      <c r="J14" t="n">
+        <v>84</v>
+      </c>
+      <c r="K14" t="n">
+        <v>58</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="P14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R14" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" t="s">
+        <v>103</v>
+      </c>
+      <c r="U14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1015.4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1018.3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9</v>
+      </c>
+      <c r="J15" t="n">
+        <v>64</v>
+      </c>
+      <c r="K15" t="n">
+        <v>45</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M15" t="n">
+        <v>8</v>
+      </c>
+      <c r="N15" t="s">
+        <v>80</v>
+      </c>
+      <c r="O15" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="P15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="R15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" t="s">
+        <v>46</v>
+      </c>
+      <c r="U15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1012.8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1015.7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>73</v>
+      </c>
+      <c r="K16" t="n">
+        <v>49</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="N16" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="R16" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" t="s">
+        <v>29</v>
+      </c>
+      <c r="T16" t="s">
+        <v>50</v>
+      </c>
+      <c r="U16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1007.2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1010</v>
+      </c>
+      <c r="D17" t="n">
+        <v>49</v>
+      </c>
+      <c r="E17" t="n">
+        <v>16</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>85</v>
+      </c>
+      <c r="K17" t="n">
+        <v>65</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>41</v>
+      </c>
+      <c r="O17" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="P17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>29</v>
+      </c>
+      <c r="S17" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" t="s">
+        <v>48</v>
+      </c>
+      <c r="U17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1003.3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1006</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>55</v>
+      </c>
+      <c r="K18" t="n">
+        <v>24</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M18" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O18" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="P18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="R18" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" t="s">
+        <v>29</v>
+      </c>
+      <c r="T18" t="s">
+        <v>37</v>
+      </c>
+      <c r="U18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1009.2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1012</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J19" t="n">
+        <v>57</v>
+      </c>
+      <c r="K19" t="n">
+        <v>35</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="N19" t="s">
+        <v>80</v>
+      </c>
+      <c r="O19" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="P19" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="R19" t="s">
+        <v>29</v>
+      </c>
+      <c r="S19" t="s">
+        <v>29</v>
+      </c>
+      <c r="T19" t="s">
+        <v>33</v>
+      </c>
+      <c r="U19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1008.2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>29</v>
+      </c>
+      <c r="I20" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>59</v>
+      </c>
+      <c r="K20" t="n">
+        <v>43</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>80</v>
+      </c>
+      <c r="O20" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="P20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="R20" t="s">
+        <v>29</v>
+      </c>
+      <c r="S20" t="s">
+        <v>29</v>
+      </c>
+      <c r="T20" t="s">
+        <v>50</v>
+      </c>
+      <c r="U20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" t="n">
+        <v>17</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1003.9</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1006.7</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>24</v>
+      </c>
+      <c r="H21" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>71</v>
+      </c>
+      <c r="K21" t="n">
+        <v>55</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M21" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="N21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="P21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="R21" t="s">
+        <v>29</v>
+      </c>
+      <c r="S21" t="s">
+        <v>29</v>
+      </c>
+      <c r="T21" t="s">
+        <v>39</v>
+      </c>
+      <c r="U21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" t="n">
+        <v>18</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1002.4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1005.2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="n">
+        <v>82</v>
+      </c>
+      <c r="K22" t="n">
+        <v>64</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" t="n">
+        <v>7</v>
+      </c>
+      <c r="N22" t="s">
+        <v>45</v>
+      </c>
+      <c r="O22" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="P22" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="R22" t="s">
+        <v>29</v>
+      </c>
+      <c r="S22" t="s">
+        <v>29</v>
+      </c>
+      <c r="T22" t="s">
+        <v>47</v>
+      </c>
+      <c r="U22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" t="n">
+        <v>19</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1000.4</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1003.2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>70</v>
+      </c>
+      <c r="K23" t="n">
+        <v>38</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="M23" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="N23" t="s">
+        <v>80</v>
+      </c>
+      <c r="O23" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="P23" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R23" t="s">
+        <v>29</v>
+      </c>
+      <c r="S23" t="s">
+        <v>29</v>
+      </c>
+      <c r="T23" t="s">
+        <v>66</v>
+      </c>
+      <c r="U23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" t="n">
+        <v>20</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1015.3</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1018.2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>51</v>
+      </c>
+      <c r="K24" t="n">
+        <v>28</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>30</v>
+      </c>
+      <c r="O24" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="P24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>11</v>
+      </c>
+      <c r="R24" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" t="s">
+        <v>29</v>
+      </c>
+      <c r="T24" t="s">
+        <v>31</v>
+      </c>
+      <c r="U24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" t="n">
+        <v>21</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1017</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1019.8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="J25" t="n">
+        <v>48</v>
+      </c>
+      <c r="K25" t="n">
+        <v>20</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="N25" t="s">
+        <v>80</v>
+      </c>
+      <c r="O25" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="P25" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>11</v>
+      </c>
+      <c r="R25" t="s">
+        <v>29</v>
+      </c>
+      <c r="S25" t="s">
+        <v>29</v>
+      </c>
+      <c r="T25" t="s">
+        <v>72</v>
+      </c>
+      <c r="U25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L1:P2"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="R1:S2"/>
+    <mergeCell ref="T1:U2"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1000.6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1003.3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>73</v>
+      </c>
+      <c r="K5" t="n">
+        <v>50</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="P5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="R5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1004.7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>70</v>
+      </c>
+      <c r="K6" t="n">
+        <v>39</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="N6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="P6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="R6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1003.3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1006</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>74</v>
+      </c>
+      <c r="K7" t="n">
+        <v>55</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="N7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="P7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="R7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1004.3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>72</v>
+      </c>
+      <c r="K8" t="n">
+        <v>53</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="P8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1001.6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1004.3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>77</v>
+      </c>
+      <c r="K9" t="n">
+        <v>61</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="P9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="R9" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1001.5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1004.2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>34</v>
+      </c>
+      <c r="I10" t="n">
+        <v>25</v>
+      </c>
+      <c r="J10" t="n">
+        <v>80</v>
+      </c>
+      <c r="K10" t="n">
+        <v>63</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="N10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="P10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="R10" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" t="s">
+        <v>66</v>
+      </c>
+      <c r="U10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1005.2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1008</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>93</v>
+      </c>
+      <c r="K11" t="n">
+        <v>78</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="P11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>29</v>
+      </c>
+      <c r="S11" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" t="s">
+        <v>43</v>
+      </c>
+      <c r="U11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22"/>
+    <row r="13" spans="1:22"/>
+    <row r="14" spans="1:22"/>
+    <row r="15" spans="1:22"/>
+    <row r="16" spans="1:22"/>
+    <row r="17" spans="1:22"/>
+    <row r="18" spans="1:22"/>
+    <row r="19" spans="1:22"/>
+    <row r="20" spans="1:22"/>
+    <row r="21" spans="1:22"/>
+    <row r="22" spans="1:22"/>
+    <row r="23" spans="1:22"/>
+    <row r="24" spans="1:22"/>
+    <row r="25" spans="1:22"/>
+    <row r="26" spans="1:22"/>
+    <row r="27" spans="1:22"/>
+    <row r="28" spans="1:22"/>
+    <row r="29" spans="1:22"/>
+    <row r="30" spans="1:22"/>
+    <row r="31" spans="1:22"/>
+    <row r="32" spans="1:22"/>
+    <row r="33" spans="1:22"/>
+    <row r="34" spans="1:22"/>
+    <row r="35" spans="1:22"/>
   </sheetData>
   <mergeCells count="23">
     <mergeCell ref="A1:A4"/>
